--- a/biology/Médecine/Mutuelle_nationale_territoriale/Mutuelle_nationale_territoriale.xlsx
+++ b/biology/Médecine/Mutuelle_nationale_territoriale/Mutuelle_nationale_territoriale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Mutuelle nationale territoriale (MNT), est une mutuelle de santé et prévoyance des agents des services publics locaux de la fonction publique territoriale, dont le siège est à Paris, en France. Elle assure la protection sociale d’1,5 million de personnes[3] en France et est dédiée aux agents des collectivités territoriales ainsi qu'aux employés des services publics locaux relevant du personnel communal (employés de mairies, ramassages des ordures, agents de l'urbanisme des communes, agents administratifs des services de l'action sociale (CCAS), des conseils départementaux, des établissements scolaires publics sauf lycées, agents administratifs des services des impôts).
+La Mutuelle nationale territoriale (MNT), est une mutuelle de santé et prévoyance des agents des services publics locaux de la fonction publique territoriale, dont le siège est à Paris, en France. Elle assure la protection sociale d’1,5 million de personnes en France et est dédiée aux agents des collectivités territoriales ainsi qu'aux employés des services publics locaux relevant du personnel communal (employés de mairies, ramassages des ordures, agents de l'urbanisme des communes, agents administratifs des services de l'action sociale (CCAS), des conseils départementaux, des établissements scolaires publics sauf lycées, agents administratifs des services des impôts).
 </t>
         </is>
       </c>
@@ -512,15 +524,17 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À sa création, la Mutuelle nationale territoriale s’appelait la « Mutuelle générale du personnel des collectivités locales » (MGPCL)[4].
-La MGPCL est fondée en avril 1964 à la Maison de la Mutualité par Jean-Georges Binet (secrétaire général de la Mairie de Toulon) et Eugène Avinée (maire de Loos-lez-Lille), en réponse à la mise en place de la Sécurité sociale au sortir de la Seconde Guerre mondiale, les agents des communes ne peuvent pas gérer leur assurance maladie, à la différence des fonctionnaires d’État[5].
-En 1975, la MGPCL rejoint la Fédération nationale de la mutualité française (FNMF)[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À sa création, la Mutuelle nationale territoriale s’appelait la « Mutuelle générale du personnel des collectivités locales » (MGPCL).
+La MGPCL est fondée en avril 1964 à la Maison de la Mutualité par Jean-Georges Binet (secrétaire général de la Mairie de Toulon) et Eugène Avinée (maire de Loos-lez-Lille), en réponse à la mise en place de la Sécurité sociale au sortir de la Seconde Guerre mondiale, les agents des communes ne peuvent pas gérer leur assurance maladie, à la différence des fonctionnaires d’État.
+En 1975, la MGPCL rejoint la Fédération nationale de la mutualité française (FNMF).
 En 1992, la MGPCL devient la Mutuelle nationale territoriale (MNT).
-Depuis sa création, la MNT s’est essentiellement développée en fusionnant avec des mutuelles locales (plus de 50 fusions depuis sa création)[5].
-En janvier 2016, la MNT et SMACL Assurances s'unissent en formant une union de groupe mutualiste baptisée "Territoires d'avenir"[6].
-En septembre 2017, Harmonie Mutuelle, la MGEN, la MNT, la MGEFI, Harmonie Fonction Publique et la Mutuelle Mare-Gaillard se regroupent pour former l'union mutualiste de groupe VYV[7].
+Depuis sa création, la MNT s’est essentiellement développée en fusionnant avec des mutuelles locales (plus de 50 fusions depuis sa création).
+En janvier 2016, la MNT et SMACL Assurances s'unissent en formant une union de groupe mutualiste baptisée "Territoires d'avenir".
+En septembre 2017, Harmonie Mutuelle, la MGEN, la MNT, la MGEFI, Harmonie Fonction Publique et la Mutuelle Mare-Gaillard se regroupent pour former l'union mutualiste de groupe VYV.
 </t>
         </is>
       </c>
@@ -549,56 +563,95 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La MNT pratique une gouvernance mutualiste : l’ensemble des adhérents élisent des représentants qui participent à l’assemblée générale annuelle, valident les décisions du conseil d’administration et déterminent les orientations de la mutuelle.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La MNT pratique une gouvernance mutualiste : l’ensemble des adhérents élisent des représentants qui participent à l’assemblée générale annuelle, valident les décisions du conseil d’administration et déterminent les orientations de la mutuelle.
 Le siège social est situé rue d'Athènes à Paris, depuis 2016. La MNT compte également 94 agences.
-Liste des présidents de la MNT[5]
-1964-1978 : Eugène Avinée
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mutuelle_nationale_territoriale</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mutuelle_nationale_territoriale</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des présidents de la MNT[5]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1964-1978 : Eugène Avinée
 1978-1995 : André Le Floch
 1995-2001 : Robert François
 2001-2005 : Aimé Bellina
 2005-2013 : Jean-Pierre Moreau
-2013-2021 : Alain Gianazza[8]
+2013-2021 : Alain Gianazza
 Depuis 2021 : Didier Bée</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Mutuelle_nationale_territoriale</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Mutuelle_nationale_territoriale</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Partenaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La MNT a des partenariats avec des institutions ainsi que des associations[9] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La MNT a des partenariats avec des institutions ainsi que des associations :
 le Groupe VYV, union mutualiste de groupe avec Harmonie Mutuelle, MGEN, MGEFI, Harmonie Fonction Publique et Mutuelle Mare-Gaillard.
 Uni-ter, association regroupant des mutuelles de la fonction publique territoriale ;
 Fédération Nationale de la Mutualité Française (FNMF) ;
 Complémen’ter, un partenariat avec la MGEN pour la protection sociale des agents départementaux et régionaux ;
 Unocam, union nationale des organismes d’assurance maladie complémentaire ;
-France Alzheimer, association nationale de familles reconnue d’utilité publique dans le domaine de la maladie d’Alzheimer[10] ;
+France Alzheimer, association nationale de familles reconnue d’utilité publique dans le domaine de la maladie d’Alzheimer ;
 Fédération française des diabétiques ;
-Association Sparadrap œuvrant pour les enfants malades et hospitalisés[10] ;
+Association Sparadrap œuvrant pour les enfants malades et hospitalisés ;
 Association des maires de France (AMF) ;
 Belambra Clubs, acteur du secteur des villages de vacances et des résidences de tourisme ;
 Banque française mutualiste (BFM) ;
